--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_264__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_264__Reeval_LHS_Modell_1.2.xlsx
@@ -5873,7 +5873,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>20.19864082336426</c:v>
+                  <c:v>20.19863891601562</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>51.20597839355469</c:v>
@@ -5903,22 +5903,22 @@
                   <c:v>49.30356597900391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.01242637634277</c:v>
+                  <c:v>24.01242446899414</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>46.57789611816406</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.26748657226562</c:v>
+                  <c:v>49.26748275756836</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.25356674194336</c:v>
+                  <c:v>49.25357055664062</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.61618804931641</c:v>
+                  <c:v>54.61618041992188</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.37263107299805</c:v>
+                  <c:v>47.37262725830078</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>41.44762802124023</c:v>
@@ -5927,13 +5927,13 @@
                   <c:v>46.75533676147461</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69.67686462402344</c:v>
+                  <c:v>69.67687225341797</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>58.01261520385742</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.27434158325195</c:v>
+                  <c:v>37.27433395385742</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>49.28362274169922</c:v>
@@ -5942,7 +5942,7 @@
                   <c:v>59.61944580078125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.89023971557617</c:v>
+                  <c:v>53.89023590087891</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>59.56591415405273</c:v>
@@ -5951,7 +5951,7 @@
                   <c:v>65.85248565673828</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60.06009292602539</c:v>
+                  <c:v>60.06008911132812</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>48.72452545166016</c:v>
@@ -5960,7 +5960,7 @@
                   <c:v>74.25174713134766</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59.78051376342773</c:v>
+                  <c:v>59.78050994873047</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>51.36061477661133</c:v>
@@ -5981,10 +5981,10 @@
                   <c:v>63.2613525390625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>62.46958160400391</c:v>
+                  <c:v>62.46958923339844</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>64.92971801757812</c:v>
+                  <c:v>64.92971038818359</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>59.8034553527832</c:v>
@@ -5993,7 +5993,7 @@
                   <c:v>44.46954727172852</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>46.60357284545898</c:v>
+                  <c:v>46.60356903076172</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>36.10219955444336</c:v>
@@ -6008,7 +6008,7 @@
                   <c:v>63.50730133056641</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>26.52576637268066</c:v>
+                  <c:v>26.5257625579834</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>35.86663436889648</c:v>
@@ -6029,7 +6029,7 @@
                   <c:v>33.01711654663086</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>72.24546813964844</c:v>
+                  <c:v>72.24547576904297</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>40.41374969482422</c:v>
@@ -6062,7 +6062,7 @@
                   <c:v>41.29220581054688</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>40.94191360473633</c:v>
+                  <c:v>40.94191741943359</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>51.09653091430664</c:v>
@@ -6074,19 +6074,19 @@
                   <c:v>59.92444229125977</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>57.95294952392578</c:v>
+                  <c:v>57.95294189453125</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>30.78335189819336</c:v>
+                  <c:v>30.78334999084473</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>51.68733215332031</c:v>
+                  <c:v>51.68732833862305</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>57.3709716796875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>54.40890884399414</c:v>
+                  <c:v>54.40890121459961</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45.27616500854492</c:v>
@@ -6098,10 +6098,10 @@
                   <c:v>58.23125457763672</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>44.28363418579102</c:v>
+                  <c:v>44.28363800048828</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45.9744758605957</c:v>
+                  <c:v>45.97447204589844</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>52.34779739379883</c:v>
@@ -6110,16 +6110,16 @@
                   <c:v>31.64277458190918</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>49.27116012573242</c:v>
+                  <c:v>49.27115631103516</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>41.35393905639648</c:v>
+                  <c:v>41.35393524169922</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>59.32260513305664</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>51.18465423583984</c:v>
+                  <c:v>51.18466186523438</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>43.05643081665039</c:v>
@@ -6131,13 +6131,13 @@
                   <c:v>79.49607086181641</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>32.41328430175781</c:v>
+                  <c:v>32.41328048706055</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>50.58000946044922</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>34.22507858276367</c:v>
+                  <c:v>34.22508239746094</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>47.79030609130859</c:v>
@@ -6146,7 +6146,7 @@
                   <c:v>59.47358703613281</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>61.33967590332031</c:v>
+                  <c:v>61.33966827392578</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>62.09453964233398</c:v>
@@ -6158,10 +6158,10 @@
                   <c:v>54.12185287475586</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>44.18289184570312</c:v>
+                  <c:v>44.18288803100586</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>39.65765380859375</c:v>
+                  <c:v>39.65764999389648</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>56.15222549438477</c:v>
@@ -6859,7 +6859,7 @@
         <v>80.4158</v>
       </c>
       <c r="F2">
-        <v>20.19864082336426</v>
+        <v>20.19863891601562</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>96.3742</v>
       </c>
       <c r="F12">
-        <v>24.01242637634277</v>
+        <v>24.01242446899414</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>96.46769999999999</v>
       </c>
       <c r="F14">
-        <v>49.26748657226562</v>
+        <v>49.26748275756836</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>92.2294</v>
       </c>
       <c r="F15">
-        <v>49.25356674194336</v>
+        <v>49.25357055664062</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>54.61618804931641</v>
+        <v>54.61618041992188</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>47.37263107299805</v>
+        <v>47.37262725830078</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>94.2979</v>
       </c>
       <c r="F20">
-        <v>69.67686462402344</v>
+        <v>69.67687225341797</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>37.27434158325195</v>
+        <v>37.27433395385742</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>92.7298</v>
       </c>
       <c r="F25">
-        <v>53.89023971557617</v>
+        <v>53.89023590087891</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>90.157</v>
       </c>
       <c r="F28">
-        <v>60.06009292602539</v>
+        <v>60.06008911132812</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>87.8788</v>
       </c>
       <c r="F31">
-        <v>59.78051376342773</v>
+        <v>59.78050994873047</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>95.404</v>
       </c>
       <c r="F38">
-        <v>62.46958160400391</v>
+        <v>62.46958923339844</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>95.8798</v>
       </c>
       <c r="F39">
-        <v>64.92971801757812</v>
+        <v>64.92971038818359</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.2435</v>
       </c>
       <c r="F42">
-        <v>46.60357284545898</v>
+        <v>46.60356903076172</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>26.52576637268066</v>
+        <v>26.5257625579834</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>72.24546813964844</v>
+        <v>72.24547576904297</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>40.94191360473633</v>
+        <v>40.94191741943359</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>57.95294952392578</v>
+        <v>57.95294189453125</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>97.982</v>
       </c>
       <c r="F70">
-        <v>30.78335189819336</v>
+        <v>30.78334999084473</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>94.41</v>
       </c>
       <c r="F71">
-        <v>51.68733215332031</v>
+        <v>51.68732833862305</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>54.40890884399414</v>
+        <v>54.40890121459961</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>84.90900000000001</v>
       </c>
       <c r="F77">
-        <v>44.28363418579102</v>
+        <v>44.28363800048828</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>71.7201</v>
       </c>
       <c r="F78">
-        <v>45.9744758605957</v>
+        <v>45.97447204589844</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>49.27116012573242</v>
+        <v>49.27115631103516</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>97.7243</v>
       </c>
       <c r="F82">
-        <v>41.35393905639648</v>
+        <v>41.35393524169922</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>36.4333</v>
       </c>
       <c r="F84">
-        <v>51.18465423583984</v>
+        <v>51.18466186523438</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>32.41328430175781</v>
+        <v>32.41328048706055</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>34.22507858276367</v>
+        <v>34.22508239746094</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>97.4933</v>
       </c>
       <c r="F93">
-        <v>61.33967590332031</v>
+        <v>61.33966827392578</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>44.18289184570312</v>
+        <v>44.18288803100586</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>84.1915</v>
       </c>
       <c r="F98">
-        <v>39.65765380859375</v>
+        <v>39.65764999389648</v>
       </c>
     </row>
     <row r="99" spans="1:6">
